--- a/Supporting-Material/中交天和传输文件-参数选取-marked.xlsx
+++ b/Supporting-Material/中交天和传输文件-参数选取-marked.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJ\Project-TBM_Forecasting-SZ202509\Supporting-Material\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072B82A-6AFE-4FFC-87BD-4B0E53792C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="14250"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,14 +1426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,152 +1450,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,198 +1466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1824,251 +1494,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2079,68 +1507,24 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2156,13 +1540,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2434,25 +1824,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="30.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.0866666666667" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2492,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2506,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2520,7 +1910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2534,7 +1924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2548,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2562,7 +1952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2576,7 +1966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2590,7 +1980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2604,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2618,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2632,7 +2022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2646,7 +2036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2660,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5570,7 +4960,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>